--- a/data/trans_dic/P17_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P17_R2-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1704894963739275</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.09156847149783016</v>
+        <v>0.09156847149783018</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2630009586708115</v>
@@ -697,7 +697,7 @@
         <v>0.1579793354177838</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.09794342308794771</v>
+        <v>0.09794342308794772</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.211356015920063</v>
+        <v>0.2128224195555452</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1672817734767021</v>
+        <v>0.1666204344090159</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1165003311155614</v>
+        <v>0.1200570914325381</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08342436681658627</v>
+        <v>0.08190112790141628</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2599524739377861</v>
+        <v>0.2590078246475994</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2235285552671987</v>
+        <v>0.2245303501722616</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1450732869812474</v>
+        <v>0.1458348527359442</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07688418471911937</v>
+        <v>0.07563332979579063</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2451995637295962</v>
+        <v>0.2448575882551753</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2055089209215943</v>
+        <v>0.2085810268750992</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1411214464506111</v>
+        <v>0.1396586330478902</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08445605231044735</v>
+        <v>0.08500290362068241</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2636930992398367</v>
+        <v>0.2646970842322696</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2177685913578323</v>
+        <v>0.2156706033397535</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1685312703599657</v>
+        <v>0.1689319900181103</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1350561763978748</v>
+        <v>0.1315006316493791</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.310249954935978</v>
+        <v>0.3071377002894926</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2744500290224837</v>
+        <v>0.2710585882560502</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1963250726126825</v>
+        <v>0.1957693614224595</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1087209939566623</v>
+        <v>0.1076506592205894</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2806763716922493</v>
+        <v>0.2815872556051851</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2430956995994008</v>
+        <v>0.2432832302960646</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1769256115100314</v>
+        <v>0.1757474852629082</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1120122303370356</v>
+        <v>0.1134731190169914</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1944924075705352</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1413305586510867</v>
+        <v>0.1413305586510868</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3350650948809024</v>
@@ -833,7 +833,7 @@
         <v>0.2168478266636022</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1851524196614992</v>
+        <v>0.1851524196614993</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.196878033970832</v>
+        <v>0.1978839610410667</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2509225781016632</v>
+        <v>0.2527750395104724</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.178150529297436</v>
+        <v>0.1788573564057573</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1238932828503912</v>
+        <v>0.1256356011407367</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3122031509738505</v>
+        <v>0.3109034547375158</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3630283795687155</v>
+        <v>0.3592707430812348</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2214226465506839</v>
+        <v>0.2216876332906627</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2130098585323825</v>
+        <v>0.2141555307936073</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2578769570703098</v>
+        <v>0.2589695171080085</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3090868593269061</v>
+        <v>0.308945461635001</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2052732272765536</v>
+        <v>0.2046661754855873</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.173737081402451</v>
+        <v>0.1736310371786863</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2393780163160815</v>
+        <v>0.2394566379556357</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2935758565413567</v>
+        <v>0.2935895750966634</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2117295220093897</v>
+        <v>0.2140934638857666</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1607622187065657</v>
+        <v>0.1594987415419847</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3594752644107649</v>
+        <v>0.357180462082086</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4074240795607127</v>
+        <v>0.4064456684095785</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.25867866122418</v>
+        <v>0.2593434260687817</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.247316825304325</v>
+        <v>0.2480198620272002</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2895942126688029</v>
+        <v>0.2911217873695899</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3412578439184841</v>
+        <v>0.3405061243635533</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2311207095493321</v>
+        <v>0.2313687675177148</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1990520633369329</v>
+        <v>0.1970554419286016</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1935969995498587</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2022889833289736</v>
+        <v>0.2022889833289735</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2933965406284187</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2425074229737275</v>
+        <v>0.2414677532951099</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.258478753226845</v>
+        <v>0.2615365461445375</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1635948358732993</v>
+        <v>0.160818906139591</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1703953887980334</v>
+        <v>0.1676487181578307</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2488978991406659</v>
+        <v>0.2529906874585747</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3184300711521409</v>
+        <v>0.3177112065097564</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2633728695348254</v>
+        <v>0.2690312479336923</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2109095906558148</v>
+        <v>0.2140222234660189</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.259066100739044</v>
+        <v>0.258939720794941</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3026994586841068</v>
+        <v>0.2993356587312089</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2238667431027773</v>
+        <v>0.2239957233041198</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1984230499658491</v>
+        <v>0.1999073745591977</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3193249671463435</v>
+        <v>0.3192774052866348</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3498764293187058</v>
+        <v>0.3523408322824602</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2337061210131978</v>
+        <v>0.23196093552312</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2407752810827929</v>
+        <v>0.2378040110570253</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3321748798969607</v>
+        <v>0.3408102572855891</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4140480530376013</v>
+        <v>0.4110304883204366</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3487757008597586</v>
+        <v>0.3476476002676231</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2693296031698728</v>
+        <v>0.2694859467168738</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3157025236264356</v>
+        <v>0.3136223525289331</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3643387712314407</v>
+        <v>0.3651547135164704</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2770526530277127</v>
+        <v>0.2778708909684766</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.245739002305142</v>
+        <v>0.2455606020129747</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2209054684831939</v>
+        <v>0.2191141791591646</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2382237833744198</v>
+        <v>0.2392571281194291</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1688007927870037</v>
+        <v>0.1695797420700429</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1342413773698012</v>
+        <v>0.1345600876486902</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2924675709876742</v>
+        <v>0.2935226107439725</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.312982235787938</v>
+        <v>0.3135975338654044</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2164996349398161</v>
+        <v>0.2174894359677146</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1901517682357725</v>
+        <v>0.1896164892453477</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2613607796828196</v>
+        <v>0.2613936706478213</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2819029430391937</v>
+        <v>0.2808715646079272</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1964372656848985</v>
+        <v>0.1970437125086612</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1655755365096546</v>
+        <v>0.1664049981612622</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2501282406842695</v>
+        <v>0.2502181726111911</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2704243396454997</v>
+        <v>0.2683762549626771</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1960236987176217</v>
+        <v>0.1964334308600455</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1626917970114112</v>
+        <v>0.1619263285768028</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3248768697327278</v>
+        <v>0.324790131369305</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3457605688115694</v>
+        <v>0.347136522837621</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2448260518291508</v>
+        <v>0.2456284726208085</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2134056230354067</v>
+        <v>0.2128487515330656</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2831256636917109</v>
+        <v>0.2833248280815198</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3050565632021634</v>
+        <v>0.3029740318890813</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2170312559890768</v>
+        <v>0.2166749849769636</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1839932166863415</v>
+        <v>0.184163932749333</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>217323</v>
+        <v>218830</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>162863</v>
+        <v>162219</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>87624</v>
+        <v>90300</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>47937</v>
+        <v>47062</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>341624</v>
+        <v>340383</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>298799</v>
+        <v>300138</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>144030</v>
+        <v>144786</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>63041</v>
+        <v>62016</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>574358</v>
+        <v>573557</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>474792</v>
+        <v>481889</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>246250</v>
+        <v>243697</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>117780</v>
+        <v>118543</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>271137</v>
+        <v>272169</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>212016</v>
+        <v>209973</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>126759</v>
+        <v>127060</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>77606</v>
+        <v>75563</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>407724</v>
+        <v>403634</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>366868</v>
+        <v>362334</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>194913</v>
+        <v>194362</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>89146</v>
+        <v>88268</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>657459</v>
+        <v>659593</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>561629</v>
+        <v>562063</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>308726</v>
+        <v>306670</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>156209</v>
+        <v>158246</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>332861</v>
+        <v>334561</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>492540</v>
+        <v>496176</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>369110</v>
+        <v>370574</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>275685</v>
+        <v>279562</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>495372</v>
+        <v>493310</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>638132</v>
+        <v>631527</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>438204</v>
+        <v>438728</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>461349</v>
+        <v>463830</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>845164</v>
+        <v>848745</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1150025</v>
+        <v>1149499</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>831549</v>
+        <v>829090</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>762886</v>
+        <v>762421</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>404715</v>
+        <v>404848</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>576265</v>
+        <v>576292</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>438682</v>
+        <v>443580</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>357725</v>
+        <v>354914</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>570379</v>
+        <v>566738</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>716171</v>
+        <v>714451</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>511935</v>
+        <v>513250</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>535653</v>
+        <v>537176</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>949114</v>
+        <v>954120</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1269725</v>
+        <v>1266928</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>936255</v>
+        <v>937260</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>874046</v>
+        <v>865278</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>132944</v>
+        <v>132374</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>124375</v>
+        <v>125846</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>89119</v>
+        <v>87607</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>120852</v>
+        <v>118904</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>118578</v>
+        <v>120528</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>145366</v>
+        <v>145038</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>144364</v>
+        <v>147465</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>154451</v>
+        <v>156730</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>265444</v>
+        <v>265315</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>283839</v>
+        <v>280684</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>244662</v>
+        <v>244802</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>286037</v>
+        <v>288177</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>175056</v>
+        <v>175030</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>168354</v>
+        <v>169540</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>127312</v>
+        <v>126362</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>170769</v>
+        <v>168662</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>158252</v>
+        <v>162366</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>189017</v>
+        <v>187639</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>191176</v>
+        <v>190558</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>197232</v>
+        <v>197346</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>323475</v>
+        <v>321343</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>341637</v>
+        <v>342402</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>302788</v>
+        <v>303682</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>354246</v>
+        <v>353989</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>721727</v>
+        <v>715875</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>814173</v>
+        <v>817705</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>568655</v>
+        <v>571279</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>471060</v>
+        <v>472178</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>987748</v>
+        <v>991311</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1111416</v>
+        <v>1113601</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>762075</v>
+        <v>765559</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>707006</v>
+        <v>705016</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1736591</v>
+        <v>1736810</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1964506</v>
+        <v>1957318</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1353212</v>
+        <v>1357390</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1196642</v>
+        <v>1202636</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>817202</v>
+        <v>817496</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>924224</v>
+        <v>917224</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>660363</v>
+        <v>661743</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>570893</v>
+        <v>568207</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1097203</v>
+        <v>1096910</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1227813</v>
+        <v>1232699</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>861784</v>
+        <v>864608</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>793467</v>
+        <v>791396</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1881206</v>
+        <v>1882529</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>2125857</v>
+        <v>2111345</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1495079</v>
+        <v>1492625</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1329749</v>
+        <v>1330983</v>
       </c>
     </row>
     <row r="20">
